--- a/Plan de Calidad.xlsx
+++ b/Plan de Calidad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="15120" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Faltas de Ortografía</t>
   </si>
   <si>
-    <t>Hoja</t>
-  </si>
-  <si>
     <t>Ambigüedades</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>Por prueba</t>
   </si>
   <si>
-    <t>Pruebas precisas</t>
-  </si>
-  <si>
     <t>Componentes</t>
   </si>
   <si>
@@ -152,6 +146,12 @@
   </si>
   <si>
     <t>Por cada 1000 lineas de código</t>
+  </si>
+  <si>
+    <t>Por Hoja</t>
+  </si>
+  <si>
+    <t>Pruebas imprecisas</t>
   </si>
 </sst>
 </file>
@@ -167,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +180,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -241,43 +283,213 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,7 +796,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,357 +810,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="8" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="3">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="5" t="s">
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>2</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>3</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>4</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>5</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="C14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="8">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44">
+        <v>6</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="12">
+        <v>5</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="12">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="42">
+        <v>7</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="E18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="14">
         <v>1</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="5" t="s">
+      <c r="E19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1">
+        <v>90</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="9">
-        <v>8</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="9">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="9">
-        <v>4</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="9">
-        <v>5</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="9">
-        <v>5</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="9">
-        <v>2</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>7</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="11">
-        <v>2</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>8</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="9">
-        <v>10</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
